--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H2">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N2">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q2">
-        <v>8.260779927278666</v>
+        <v>0.4476127703542223</v>
       </c>
       <c r="R2">
-        <v>74.347019345508</v>
+        <v>4.028514933188</v>
       </c>
       <c r="S2">
-        <v>0.09620649555097199</v>
+        <v>0.009476754241922361</v>
       </c>
       <c r="T2">
-        <v>0.09620649555097202</v>
+        <v>0.009476754241922365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H3">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.862121</v>
       </c>
       <c r="O3">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P3">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q3">
-        <v>10.57287380252133</v>
+        <v>0.5938132175126666</v>
       </c>
       <c r="R3">
-        <v>95.15586422269197</v>
+        <v>5.344318957613999</v>
       </c>
       <c r="S3">
-        <v>0.1231335473644974</v>
+        <v>0.01257207635858874</v>
       </c>
       <c r="T3">
-        <v>0.1231335473644974</v>
+        <v>0.01257207635858875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H4">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N4">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q4">
-        <v>6.348753179048</v>
+        <v>0.3564017230095556</v>
       </c>
       <c r="R4">
-        <v>57.138778611432</v>
+        <v>3.207615507086</v>
       </c>
       <c r="S4">
-        <v>0.07393869584363962</v>
+        <v>0.007545655003735495</v>
       </c>
       <c r="T4">
-        <v>0.07393869584363963</v>
+        <v>0.007545655003735496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H5">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N5">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O5">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P5">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q5">
-        <v>8.85639774928222</v>
+        <v>0.3730215797042222</v>
       </c>
       <c r="R5">
-        <v>79.70757974353998</v>
+        <v>3.357194217337999</v>
       </c>
       <c r="S5">
-        <v>0.103143165435306</v>
+        <v>0.007897526772958439</v>
       </c>
       <c r="T5">
-        <v>0.103143165435306</v>
+        <v>0.007897526772958441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J6">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N6">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O6">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P6">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q6">
-        <v>9.346536441242002</v>
+        <v>9.017274861569334</v>
       </c>
       <c r="R6">
-        <v>84.11882797117801</v>
+        <v>81.155473754124</v>
       </c>
       <c r="S6">
-        <v>0.1088514068244362</v>
+        <v>0.1909116617189717</v>
       </c>
       <c r="T6">
-        <v>0.1088514068244362</v>
+        <v>0.1909116617189718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J7">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.862121</v>
       </c>
       <c r="O7">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P7">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q7">
         <v>11.962520628058</v>
@@ -883,10 +883,10 @@
         <v>107.662685652522</v>
       </c>
       <c r="S7">
-        <v>0.1393176186404959</v>
+        <v>0.2532677251730761</v>
       </c>
       <c r="T7">
-        <v>0.1393176186404959</v>
+        <v>0.2532677251730762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J8">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N8">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O8">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P8">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q8">
-        <v>7.183202248068</v>
+        <v>7.179804756175333</v>
       </c>
       <c r="R8">
-        <v>64.648820232612</v>
+        <v>64.61824280557799</v>
       </c>
       <c r="S8">
-        <v>0.08365683642514664</v>
+        <v>0.1520091688300445</v>
       </c>
       <c r="T8">
-        <v>0.08365683642514665</v>
+        <v>0.1520091688300446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J9">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N9">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O9">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P9">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q9">
-        <v>10.02043935687667</v>
+        <v>7.514616061619332</v>
       </c>
       <c r="R9">
-        <v>90.18395421188998</v>
+        <v>67.63154455457399</v>
       </c>
       <c r="S9">
-        <v>0.1166997986743025</v>
+        <v>0.1590977164972594</v>
       </c>
       <c r="T9">
-        <v>0.1166997986743025</v>
+        <v>0.1590977164972594</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H10">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I10">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J10">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N10">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O10">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P10">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q10">
-        <v>2.103369691301667</v>
+        <v>2.41172345151</v>
       </c>
       <c r="R10">
-        <v>18.930327221715</v>
+        <v>21.70551106359</v>
       </c>
       <c r="S10">
-        <v>0.02449621326674484</v>
+        <v>0.05106045216572861</v>
       </c>
       <c r="T10">
-        <v>0.02449621326674485</v>
+        <v>0.05106045216572863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H11">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I11">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J11">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.862121</v>
       </c>
       <c r="O11">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P11">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q11">
-        <v>2.692077806448333</v>
+        <v>3.199446837405</v>
       </c>
       <c r="R11">
-        <v>24.22870025803499</v>
+        <v>28.795021536645</v>
       </c>
       <c r="S11">
-        <v>0.03135241149006888</v>
+        <v>0.06773794984488184</v>
       </c>
       <c r="T11">
-        <v>0.03135241149006888</v>
+        <v>0.06773794984488185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H12">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I12">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J12">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N12">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O12">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P12">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q12">
-        <v>1.61652714779</v>
+        <v>1.920281212845</v>
       </c>
       <c r="R12">
-        <v>14.54874433011</v>
+        <v>17.282530915605</v>
       </c>
       <c r="S12">
-        <v>0.01882635940201314</v>
+        <v>0.04065575053882287</v>
       </c>
       <c r="T12">
-        <v>0.01882635940201314</v>
+        <v>0.04065575053882289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H13">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I13">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J13">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N13">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O13">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P13">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q13">
-        <v>2.255026615397222</v>
+        <v>2.009828475135</v>
       </c>
       <c r="R13">
-        <v>20.295239538575</v>
+        <v>18.088456276215</v>
       </c>
       <c r="S13">
-        <v>0.02626243647105669</v>
+        <v>0.04255162450391938</v>
       </c>
       <c r="T13">
-        <v>0.0262624364710567</v>
+        <v>0.04255162450391938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H14">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I14">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J14">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N14">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O14">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P14">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q14">
-        <v>1.127667824950333</v>
+        <v>0.06227248063911112</v>
       </c>
       <c r="R14">
-        <v>10.149010424553</v>
+        <v>0.5604523257520001</v>
       </c>
       <c r="S14">
-        <v>0.01313301777061114</v>
+        <v>0.001318418584404353</v>
       </c>
       <c r="T14">
-        <v>0.01313301777061114</v>
+        <v>0.001318418584404353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H15">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I15">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J15">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.862121</v>
       </c>
       <c r="O15">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P15">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q15">
-        <v>1.443288613099666</v>
+        <v>0.08261208021733332</v>
       </c>
       <c r="R15">
-        <v>12.989597517897</v>
+        <v>0.7435087219559999</v>
       </c>
       <c r="S15">
-        <v>0.01680879296595472</v>
+        <v>0.001749043891250229</v>
       </c>
       <c r="T15">
-        <v>0.01680879296595473</v>
+        <v>0.00174904389125023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H16">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I16">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J16">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N16">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O16">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P16">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q16">
-        <v>0.866659655818</v>
+        <v>0.04958307909377778</v>
       </c>
       <c r="R16">
-        <v>7.799936902362</v>
+        <v>0.446247711844</v>
       </c>
       <c r="S16">
-        <v>0.01009327073904128</v>
+        <v>0.001049761504252172</v>
       </c>
       <c r="T16">
-        <v>0.01009327073904129</v>
+        <v>0.001049761504252173</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H17">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I17">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J17">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N17">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O17">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P17">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q17">
-        <v>1.208974803196111</v>
+        <v>0.05189525553911111</v>
       </c>
       <c r="R17">
-        <v>10.880773228765</v>
+        <v>0.467057299852</v>
       </c>
       <c r="S17">
-        <v>0.01407993313571302</v>
+        <v>0.00109871437018369</v>
       </c>
       <c r="T17">
-        <v>0.01407993313571303</v>
+        <v>0.001098714370183691</v>
       </c>
     </row>
   </sheetData>
